--- a/biology/Histoire de la zoologie et de la botanique/Charles_A._S._Hall/Charles_A._S._Hall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_A._S._Hall/Charles_A._S._Hall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles A.S. Hall, né en 1943, est un écologue et économiste de l'énergie, professeur émérite de la State University of New York.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Hall est né près de Boston. Il a une licence en biologie à l'Université de Colgate et un master en zoologie de l'Université de Penn State. Formé par Howard Odum à la science des écosystèmes, il soutient sa thèse de doctorat à l'Université de Caroline du Nord.
-Il a enseigné dans plusieurs universités, notamment de 1987 à sa retraite, à l'université de New York, dans le département des sciences de l'environnement et de la forêt[1]. Il a travaillé sur les écosystèmes, l'économie biophysique et la relation entre l'énergie et la société.
+Il a enseigné dans plusieurs universités, notamment de 1987 à sa retraite, à l'université de New York, dans le département des sciences de l'environnement et de la forêt. Il a travaillé sur les écosystèmes, l'économie biophysique et la relation entre l'énergie et la société.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Spain’s Photovoltaic Revolution: The energy return on investment avec Pedro_Prieto, Springer, 2012  (ISBN 9781441994370).
 The Chinese Oil Industry: History and Future, avec Lianyong Feng, Yan Hu et Jianliang Wang, Springer, 2012  (ISBN 9781441994103).
